--- a/29/Before_Soc_EEH2.xlsx
+++ b/29/Before_Soc_EEH2.xlsx
@@ -17,51 +17,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+  <si>
+    <t>ГО</t>
+  </si>
   <si>
     <t>ГЗ</t>
   </si>
   <si>
-    <t>ГЗ_end</t>
+    <t>1</t>
   </si>
   <si>
-    <t>Extract per1 SetValue_Start</t>
+    <t>2</t>
   </si>
   <si>
-    <t>Extract per5 SetValue_Start</t>
+    <t>3</t>
   </si>
   <si>
-    <t>Extract end</t>
+    <t>4</t>
   </si>
   <si>
-    <t>Show res of Extract</t>
-  </si>
-  <si>
-    <t>Contrib per1 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Contrib per1 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Contrib per2 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Contrib per5 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Contrib per5 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Contrib end</t>
-  </si>
-  <si>
-    <t>Extract per2 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Extract per5 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>ShowGain</t>
+    <t>5</t>
   </si>
   <si>
     <t>Бальков Андрей</t>
@@ -452,14 +428,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -468,63 +447,114 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="P1" t="s">
         <v>2</v>
       </c>
       <c r="Q1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="S1" t="s">
         <v>4</v>
       </c>
       <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" t="s">
         <v>6</v>
       </c>
-      <c r="V1" t="s">
-        <v>7</v>
-      </c>
-      <c r="W1" t="s">
-        <v>9</v>
-      </c>
       <c r="X1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y1" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:42">
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>0.05258566919013803</v>
@@ -649,7 +679,7 @@
     </row>
     <row r="8" spans="1:42">
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>0.04702307564851798</v>
@@ -774,7 +804,7 @@
     </row>
     <row r="9" spans="1:42">
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>0.04326979698143983</v>
@@ -899,7 +929,7 @@
     </row>
     <row r="10" spans="1:42">
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
         <v>0.08273290851156269</v>
@@ -1024,7 +1054,7 @@
     </row>
     <row r="11" spans="1:42">
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
         <v>0.1397936637067874</v>
@@ -1167,14 +1197,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1183,63 +1216,114 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="P1" t="s">
         <v>2</v>
       </c>
       <c r="Q1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="S1" t="s">
         <v>4</v>
       </c>
       <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" t="s">
         <v>6</v>
       </c>
-      <c r="V1" t="s">
-        <v>7</v>
-      </c>
-      <c r="W1" t="s">
-        <v>9</v>
-      </c>
       <c r="X1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y1" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:42">
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>10.24335804099831</v>
@@ -1364,7 +1448,7 @@
     </row>
     <row r="8" spans="1:42">
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>10.42687967880962</v>
@@ -1489,7 +1573,7 @@
     </row>
     <row r="9" spans="1:42">
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>10.28816730772617</v>
@@ -1614,7 +1698,7 @@
     </row>
     <row r="10" spans="1:42">
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
         <v>10.26237548211478</v>
@@ -1739,7 +1823,7 @@
     </row>
     <row r="11" spans="1:42">
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
         <v>9.931986874179945</v>
@@ -1882,14 +1966,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1898,63 +1985,114 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="P1" t="s">
         <v>2</v>
       </c>
       <c r="Q1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="S1" t="s">
         <v>4</v>
       </c>
       <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" t="s">
         <v>6</v>
       </c>
-      <c r="V1" t="s">
-        <v>7</v>
-      </c>
-      <c r="W1" t="s">
-        <v>9</v>
-      </c>
       <c r="X1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y1" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:42">
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>0.5544313281601195</v>
@@ -2079,7 +2217,7 @@
     </row>
     <row r="8" spans="1:42">
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>0.6357637145203862</v>
@@ -2204,7 +2342,7 @@
     </row>
     <row r="9" spans="1:42">
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>0.6542216253518867</v>
@@ -2329,7 +2467,7 @@
     </row>
     <row r="10" spans="1:42">
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
         <v>0.6720477871202852</v>
@@ -2454,7 +2592,7 @@
     </row>
     <row r="11" spans="1:42">
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
         <v>0.7280153045096207</v>

--- a/29/Before_Soc_EEH2.xlsx
+++ b/29/Before_Soc_EEH2.xlsx
@@ -557,124 +557,124 @@
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05258566919013803</v>
+        <v>0.05258566918973057</v>
       </c>
       <c r="D7" t="n">
-        <v>2.823508446912346</v>
+        <v>2.823508446912209</v>
       </c>
       <c r="E7" t="n">
-        <v>5.52399404976397</v>
+        <v>5.523994049763674</v>
       </c>
       <c r="F7" t="n">
-        <v>1.237869126424564</v>
+        <v>1.237869126424516</v>
       </c>
       <c r="G7" t="n">
-        <v>1.681126040912289</v>
+        <v>1.681126040912349</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5995503543338689</v>
+        <v>0.5995503543337646</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2021643883007348</v>
+        <v>0.2021643883006959</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1366834215221137</v>
+        <v>0.1366834215226258</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1529491597280148</v>
+        <v>0.1529491597279356</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1531593997290627</v>
+        <v>0.1531593997291769</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1052510705583127</v>
+        <v>0.1052510705585875</v>
       </c>
       <c r="N7" t="n">
-        <v>2.633146478014102</v>
+        <v>2.633146478013688</v>
       </c>
       <c r="O7" t="n">
-        <v>2.134377423698039</v>
+        <v>2.134377423698355</v>
       </c>
       <c r="P7" t="n">
-        <v>1.217278031545019</v>
+        <v>1.217278031544717</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.657130052680093</v>
+        <v>1.657130052680307</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2665787927379632</v>
+        <v>0.2665787927379384</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7778639837452163</v>
+        <v>0.7778639837452868</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8258387822666684</v>
+        <v>0.8258387822666305</v>
       </c>
       <c r="U7" t="n">
-        <v>1.616178729738316</v>
+        <v>1.616178729738346</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8878739500232481</v>
+        <v>0.887873950022772</v>
       </c>
       <c r="W7" t="n">
-        <v>1.061125396325675</v>
+        <v>1.06112539632459</v>
       </c>
       <c r="X7" t="n">
-        <v>1.368019706647505</v>
+        <v>1.368019706647899</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.6377441954388896</v>
+        <v>0.6377441954385873</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.088332006581707</v>
+        <v>1.088332006581579</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.04830520889997983</v>
+        <v>0.04830520890000876</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1462065664530477</v>
+        <v>0.1462065664531771</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.07518574810001265</v>
+        <v>0.07518574809991566</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.6813641891063283</v>
+        <v>0.6813641891061276</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0702960010430486</v>
+        <v>0.07029600104315641</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.8873106540469539</v>
+        <v>0.8873106540461847</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.3624774788584</v>
+        <v>1.362477478858864</v>
       </c>
       <c r="AH7" t="n">
-        <v>4.200465084623159</v>
+        <v>4.200465084624032</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.07295072437087581</v>
+        <v>0.07295072437164807</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.155003718577301</v>
+        <v>1.155003718577288</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.5265053048857322</v>
+        <v>0.5265053048858607</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.4495255373444713</v>
+        <v>0.4495255373449816</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.7840156200357381</v>
+        <v>0.7840156200355414</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.07843981674637764</v>
+        <v>0.07843981674727536</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.544337088564256</v>
+        <v>4.544337088564262</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.2587720882981361</v>
+        <v>0.2587720882980671</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -682,124 +682,124 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04702307564851798</v>
+        <v>0.04702307564803707</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3385406764859515</v>
+        <v>0.3385406764871273</v>
       </c>
       <c r="E8" t="n">
-        <v>1.05170657868254</v>
+        <v>1.051706578681944</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4968631141841213</v>
+        <v>0.4968631141836985</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1200143391865263</v>
+        <v>0.1200143391866614</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3298133992940502</v>
+        <v>0.3298133992941034</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4544346699658243</v>
+        <v>0.4544346699659582</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1628034296689018</v>
+        <v>0.1628034296689436</v>
       </c>
       <c r="K8" t="n">
-        <v>0.299176208202763</v>
+        <v>0.2991762082028246</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1073441620181392</v>
+        <v>0.107344162017975</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5301537291150755</v>
+        <v>0.5301537291150574</v>
       </c>
       <c r="N8" t="n">
-        <v>4.030126272782264</v>
+        <v>4.030126272783201</v>
       </c>
       <c r="O8" t="n">
-        <v>2.45890953208437</v>
+        <v>2.458909532085179</v>
       </c>
       <c r="P8" t="n">
-        <v>1.575310632388316</v>
+        <v>1.575310632387848</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.247375946974804</v>
+        <v>0.2473759469774771</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5005165584634785</v>
+        <v>0.5005165584626707</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8660854936513054</v>
+        <v>0.8660854936518052</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2664212184876468</v>
+        <v>0.2664212184876074</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2424562990457109</v>
+        <v>0.2424562990466</v>
       </c>
       <c r="V8" t="n">
-        <v>0.08625728869707322</v>
+        <v>0.0862572886970028</v>
       </c>
       <c r="W8" t="n">
-        <v>2.959642377216507</v>
+        <v>2.959642377215785</v>
       </c>
       <c r="X8" t="n">
-        <v>4.186461627426339</v>
+        <v>4.186461627427434</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.252820783685834</v>
+        <v>2.252820783685556</v>
       </c>
       <c r="Z8" t="n">
-        <v>11.28005526516918</v>
+        <v>11.28005526516877</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.9670399181420049</v>
+        <v>0.9670399181424411</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.267394587477446</v>
+        <v>1.267394587477428</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.2216026643166918</v>
+        <v>0.22160266431608</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.2425157274086999</v>
+        <v>0.2425157274089558</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.2400158476968448</v>
+        <v>0.240015847696953</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.1456365631711034</v>
+        <v>0.1456365631715162</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.08243452893971413</v>
+        <v>0.08243452893964268</v>
       </c>
       <c r="AH8" t="n">
-        <v>4.320510357442481</v>
+        <v>4.320510357442317</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.2153808576113837</v>
+        <v>0.2153808576110551</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.1885667910216385</v>
+        <v>0.1885667910217105</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.1438670106316502</v>
+        <v>0.1438670106304899</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.4083126128903429</v>
+        <v>0.4083126128899817</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.3757510652674744</v>
+        <v>0.3757510652674181</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.1460618930073738</v>
+        <v>0.146061893007722</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.6987302504754527</v>
+        <v>0.698730250475451</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.1712436976346038</v>
+        <v>0.1712436976345825</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -807,124 +807,124 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04326979698143983</v>
+        <v>0.04326979698161672</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4561434122933881</v>
+        <v>0.4561434122930312</v>
       </c>
       <c r="E9" t="n">
-        <v>5.370138669824324</v>
+        <v>5.370138669824131</v>
       </c>
       <c r="F9" t="n">
-        <v>5.729189089497365</v>
+        <v>5.729189089497413</v>
       </c>
       <c r="G9" t="n">
-        <v>13.74961910416866</v>
+        <v>13.74961910416897</v>
       </c>
       <c r="H9" t="n">
-        <v>1.286641077224418</v>
+        <v>1.286641077222785</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3168923005133034</v>
+        <v>0.3168923005142801</v>
       </c>
       <c r="J9" t="n">
-        <v>1.027929877960484</v>
+        <v>1.027929877961105</v>
       </c>
       <c r="K9" t="n">
-        <v>1.282902111414568</v>
+        <v>1.282902111415055</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2853223859768535</v>
+        <v>0.2853223859768291</v>
       </c>
       <c r="M9" t="n">
-        <v>0.356801678841498</v>
+        <v>0.3568016788412426</v>
       </c>
       <c r="N9" t="n">
-        <v>1.754307726452883</v>
+        <v>1.754307726452878</v>
       </c>
       <c r="O9" t="n">
-        <v>2.022635130995436</v>
+        <v>2.022635130995248</v>
       </c>
       <c r="P9" t="n">
-        <v>1.323849525851892</v>
+        <v>1.323849525852057</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.347791382496482</v>
+        <v>7.347791382496472</v>
       </c>
       <c r="R9" t="n">
-        <v>4.081395958485176</v>
+        <v>4.081395958485247</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4471511441858783</v>
+        <v>0.44715114418681</v>
       </c>
       <c r="T9" t="n">
-        <v>5.788941029813443</v>
+        <v>5.78894102981338</v>
       </c>
       <c r="U9" t="n">
-        <v>7.725452015613534</v>
+        <v>7.725452015613508</v>
       </c>
       <c r="V9" t="n">
-        <v>4.834125503116409</v>
+        <v>4.834125503116476</v>
       </c>
       <c r="W9" t="n">
-        <v>8.862937566479287</v>
+        <v>8.862937566479317</v>
       </c>
       <c r="X9" t="n">
-        <v>0.7505345644324312</v>
+        <v>0.7505345644323725</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.744161694038095</v>
+        <v>3.744161694037654</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.2083995107996057</v>
+        <v>0.2083995107996136</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.06481047465608167</v>
+        <v>0.0648104746562056</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.168808493365533</v>
+        <v>1.168808493365561</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.1254074239398674</v>
+        <v>0.1254074239399556</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.1470811896819476</v>
+        <v>0.1470811896818544</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.06825998002592706</v>
+        <v>0.06825998002574139</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.1008628922674119</v>
+        <v>0.1008628922674742</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.2655314877240387</v>
+        <v>0.2655314877240335</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.699170873051434</v>
+        <v>7.699170873051274</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.5973338866403218</v>
+        <v>0.5973338866403256</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4.315410207742596</v>
+        <v>4.31541020774262</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.5646058973743924</v>
+        <v>0.5646058973744382</v>
       </c>
       <c r="AL9" t="n">
-        <v>8.631216689890589</v>
+        <v>8.631216689890687</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.4775589292782151</v>
+        <v>0.4775589292781886</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.462418354829499</v>
+        <v>3.462418354829526</v>
       </c>
       <c r="AO9" t="n">
-        <v>3.006144038670924</v>
+        <v>3.006144038670937</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.1070544770613787</v>
+        <v>0.1070544770613716</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -932,124 +932,124 @@
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08273290851156269</v>
+        <v>0.08273290851182145</v>
       </c>
       <c r="D10" t="n">
-        <v>1.679305148226701</v>
+        <v>1.679305148227387</v>
       </c>
       <c r="E10" t="n">
-        <v>3.375999942776399</v>
+        <v>3.375999942776667</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8042751193995119</v>
+        <v>0.8042751193993352</v>
       </c>
       <c r="G10" t="n">
-        <v>1.085896208334352</v>
+        <v>1.085896208334374</v>
       </c>
       <c r="H10" t="n">
-        <v>1.413281691655664</v>
+        <v>1.413281691655886</v>
       </c>
       <c r="I10" t="n">
-        <v>0.768090649781333</v>
+        <v>0.7680906497813363</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9364249572458966</v>
+        <v>0.9364249572459482</v>
       </c>
       <c r="K10" t="n">
-        <v>1.629195054007966</v>
+        <v>1.629195054007925</v>
       </c>
       <c r="L10" t="n">
-        <v>1.85365231300221</v>
+        <v>1.853652313002316</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1098366219627</v>
+        <v>1.109836621962619</v>
       </c>
       <c r="N10" t="n">
-        <v>3.19895257799438</v>
+        <v>3.198952577996907</v>
       </c>
       <c r="O10" t="n">
-        <v>4.303757912056377</v>
+        <v>4.303757912058683</v>
       </c>
       <c r="P10" t="n">
-        <v>1.462463081896445</v>
+        <v>1.462463081896734</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4324230595548194</v>
+        <v>0.4324230595549039</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5768597611728988</v>
+        <v>0.5768597611727927</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9672231244911917</v>
+        <v>0.9672231244912765</v>
       </c>
       <c r="T10" t="n">
-        <v>3.234817438404447</v>
+        <v>3.234817438404479</v>
       </c>
       <c r="U10" t="n">
-        <v>5.025569766115695</v>
+        <v>5.025569766115788</v>
       </c>
       <c r="V10" t="n">
-        <v>1.836425799536158</v>
+        <v>1.836425799536489</v>
       </c>
       <c r="W10" t="n">
-        <v>3.467025851128301</v>
+        <v>3.467025851127572</v>
       </c>
       <c r="X10" t="n">
-        <v>4.494884128795254</v>
+        <v>4.494884128795485</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.4680417765315534</v>
+        <v>0.468041776533148</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.6476677672527037</v>
+        <v>0.6476677672525708</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.2002210846747153</v>
+        <v>0.200221084676612</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.8476109069564324</v>
+        <v>0.8476109069560857</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.9827875180524445</v>
+        <v>0.9827875180526161</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.2580561962439469</v>
+        <v>0.258056196244802</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.3968732134157613</v>
+        <v>0.3968732134163523</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.3266268477036798</v>
+        <v>0.3266268477034188</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.2616445555391647</v>
+        <v>0.2616445555382984</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.2438167637911851</v>
+        <v>0.2438167637911924</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.5027548039390516</v>
+        <v>0.5027548039388665</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.7017547551544315</v>
+        <v>0.7017547551544943</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.09240714289657818</v>
+        <v>0.09240714289698958</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.1036238149514355</v>
+        <v>0.1036238149505726</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.2590785459213624</v>
+        <v>0.259078545921432</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.15497423767547</v>
+        <v>0.1549742376760994</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.1408050750579054</v>
+        <v>0.1408050750564007</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.4198711912793826</v>
+        <v>0.4198711912794492</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -1057,124 +1057,124 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1397936637067874</v>
+        <v>0.1397936637067428</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8951130414112174</v>
+        <v>0.8951130414110847</v>
       </c>
       <c r="E11" t="n">
-        <v>1.666981722175492</v>
+        <v>1.666981722175295</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2573302310641259</v>
+        <v>0.2573302310640085</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5866799081459407</v>
+        <v>0.5866799081459635</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9321214552371102</v>
+        <v>0.9321214552371507</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7197497309402884</v>
+        <v>0.7197497309402624</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2217494446492513</v>
+        <v>0.2217494446493099</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2263889046508882</v>
+        <v>0.2263889046508321</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6455357797724313</v>
+        <v>0.6455357797727823</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6352539997743376</v>
+        <v>0.6352539997735893</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1303028643983852</v>
+        <v>0.1303028643985866</v>
       </c>
       <c r="O11" t="n">
-        <v>1.832526775409214</v>
+        <v>1.832526775409314</v>
       </c>
       <c r="P11" t="n">
-        <v>1.996648606163511</v>
+        <v>1.996648606163457</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.195858284088821</v>
+        <v>0.1958582840887777</v>
       </c>
       <c r="R11" t="n">
-        <v>0.217219666011969</v>
+        <v>0.2172196660125833</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6575349184114658</v>
+        <v>0.6575349184114844</v>
       </c>
       <c r="T11" t="n">
-        <v>0.8658336965296095</v>
+        <v>0.8658336965295945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3558141569131248</v>
+        <v>0.3558141569131419</v>
       </c>
       <c r="V11" t="n">
-        <v>0.395919311041221</v>
+        <v>0.3959193110412277</v>
       </c>
       <c r="W11" t="n">
-        <v>1.036212249326913</v>
+        <v>1.036212249328513</v>
       </c>
       <c r="X11" t="n">
-        <v>0.9197189452281604</v>
+        <v>0.9197189452295045</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.2477973838233965</v>
+        <v>0.2477973838236398</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.2397298952794175</v>
+        <v>0.2397298952792401</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.08554821215340243</v>
+        <v>0.08554821215337999</v>
       </c>
       <c r="AB11" t="n">
-        <v>4.018971520657636</v>
+        <v>4.018971520657739</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.4508505489961895</v>
+        <v>0.4508505489960693</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.4683607536813347</v>
+        <v>0.4683607536813311</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.242856561762536</v>
+        <v>1.242856561762568</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.1188911972385818</v>
+        <v>0.1188911972387984</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.09620402733758712</v>
+        <v>0.09620402733716732</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.7224669204045651</v>
+        <v>0.7224669204045665</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.3814091174952854</v>
+        <v>0.3814091174960322</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.1317372695865829</v>
+        <v>0.1317372695867838</v>
       </c>
       <c r="AK11" t="n">
-        <v>4.034865015432212</v>
+        <v>4.034865015432622</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.1752756604927349</v>
+        <v>0.1752756604930334</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.5078295986024827</v>
+        <v>0.5078295986027017</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.7289087469448199</v>
+        <v>0.7289087469448822</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.662242855873674</v>
+        <v>0.6622428558737071</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.3754360012285778</v>
+        <v>0.3754360012283294</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1389,7 @@
         <v>5.383496112751819</v>
       </c>
       <c r="X7" t="n">
-        <v>4.540590042943827</v>
+        <v>4.565552446773339</v>
       </c>
       <c r="Y7" t="n">
         <v>6.405709324737225</v>
@@ -1523,7 +1523,7 @@
         <v>3.788736505810025</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.522726641270831</v>
+        <v>6.50437801741762</v>
       </c>
       <c r="AB8" t="n">
         <v>6.279718953361739</v>
@@ -1576,22 +1576,22 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>10.28816730772617</v>
+        <v>10.28784647984942</v>
       </c>
       <c r="D9" t="n">
         <v>5.154968036151317</v>
       </c>
       <c r="E9" t="n">
-        <v>6.330459253796286</v>
+        <v>6.336828680547879</v>
       </c>
       <c r="F9" t="n">
-        <v>3.883867760132476</v>
+        <v>3.879700949737295</v>
       </c>
       <c r="G9" t="n">
         <v>5.662811471324261</v>
       </c>
       <c r="H9" t="n">
-        <v>5.289577084140183</v>
+        <v>5.303182526317054</v>
       </c>
       <c r="I9" t="n">
         <v>6.285432422573624</v>
@@ -1600,7 +1600,7 @@
         <v>3.993058062811039</v>
       </c>
       <c r="K9" t="n">
-        <v>4.412205034800252</v>
+        <v>4.397167440815289</v>
       </c>
       <c r="L9" t="n">
         <v>6.765606634439192</v>
@@ -1630,10 +1630,10 @@
         <v>4.869637262818594</v>
       </c>
       <c r="U9" t="n">
-        <v>5.81889226388867</v>
+        <v>5.827895164222537</v>
       </c>
       <c r="V9" t="n">
-        <v>5.443236200792707</v>
+        <v>5.438585038002008</v>
       </c>
       <c r="W9" t="n">
         <v>2.861880163454011</v>
@@ -1669,7 +1669,7 @@
         <v>7.683328624279059</v>
       </c>
       <c r="AH9" t="n">
-        <v>4.226641747115971</v>
+        <v>4.243170672735805</v>
       </c>
       <c r="AI9" t="n">
         <v>7.937015500885853</v>
@@ -1690,7 +1690,7 @@
         <v>6.855689373961282</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.623736069949608</v>
+        <v>7.625736069949609</v>
       </c>
       <c r="AP9" t="n">
         <v>7.498949028083868</v>
@@ -1829,7 +1829,7 @@
         <v>9.931986874179945</v>
       </c>
       <c r="D11" t="n">
-        <v>7.221912725210289</v>
+        <v>7.223173597492898</v>
       </c>
       <c r="E11" t="n">
         <v>7.188334163990729</v>
@@ -1841,7 +1841,7 @@
         <v>7.32621847328896</v>
       </c>
       <c r="H11" t="n">
-        <v>6.603046710098019</v>
+        <v>6.621395333951229</v>
       </c>
       <c r="I11" t="n">
         <v>7.531761837074773</v>
@@ -1856,7 +1856,7 @@
         <v>6.101450733592339</v>
       </c>
       <c r="M11" t="n">
-        <v>6.446919929395123</v>
+        <v>6.45432733680253</v>
       </c>
       <c r="N11" t="n">
         <v>7.198669639987311</v>
@@ -2095,124 +2095,124 @@
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5544313281601195</v>
+        <v>0.5544313281679669</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7376652722058186</v>
+        <v>0.737665272205862</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5687739822882497</v>
+        <v>0.5687739822882498</v>
       </c>
       <c r="F7" t="n">
-        <v>0.644170064278804</v>
+        <v>0.6441700642673014</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5713976068248986</v>
+        <v>0.5713976068248984</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6930313479964494</v>
+        <v>0.6930313479966518</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5785350261167537</v>
+        <v>0.5785350261167078</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6583604323040345</v>
+        <v>0.6583604322994612</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6716588136547386</v>
+        <v>0.6716588136546393</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5765352886239645</v>
+        <v>0.5765352886237667</v>
       </c>
       <c r="M7" t="n">
-        <v>0.583165761536543</v>
+        <v>0.5831657615369175</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5938439658568049</v>
+        <v>0.5938439658600456</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5655063897912361</v>
+        <v>0.5655063897912362</v>
       </c>
       <c r="P7" t="n">
         <v>0.5621274288936033</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.57782032754724</v>
+        <v>0.5778203275472399</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5624754861539619</v>
+        <v>0.5624754861539483</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5706486231794192</v>
+        <v>0.5706486231791684</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5691596386382369</v>
+        <v>0.5691596386382679</v>
       </c>
       <c r="U7" t="n">
-        <v>0.6697329914853125</v>
+        <v>0.6697329914853188</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5913762170627961</v>
+        <v>0.5913762170627809</v>
       </c>
       <c r="W7" t="n">
-        <v>0.701932024677079</v>
+        <v>0.701932024676116</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5779655880763342</v>
+        <v>0.5779655880763306</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.728744168352751</v>
+        <v>0.7287441683531944</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.6234624654529365</v>
+        <v>0.6234624654529375</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.6946825202480559</v>
+        <v>0.6946825202434546</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.6309998531772645</v>
+        <v>0.630999853175488</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.6528135587573</v>
+        <v>0.6528135587525687</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.6315194905389975</v>
+        <v>0.6315194905389958</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.6340940201358309</v>
+        <v>0.6340940201364023</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.6734213566856846</v>
+        <v>0.6734213566850866</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.6900386768080186</v>
+        <v>0.6900386768079868</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.630054595699446</v>
+        <v>0.6300545956994459</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.6066037052207658</v>
+        <v>0.6066037052195373</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.6204850373293688</v>
+        <v>0.6204850373293708</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.6092833018290315</v>
+        <v>0.6092833018290312</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.63862371208337</v>
+        <v>0.6386237120833693</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.6295824462839275</v>
+        <v>0.6295824462842068</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.6551914203927964</v>
+        <v>0.6551914203953024</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.6084223016417774</v>
+        <v>0.6084223016417772</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.6025983515748348</v>
+        <v>0.6025983515806201</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -2220,124 +2220,124 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6357637145203862</v>
+        <v>0.6357637145174018</v>
       </c>
       <c r="D8" t="n">
-        <v>0.764451547392576</v>
+        <v>0.7644515473934397</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6822793240722075</v>
+        <v>0.6822793240726925</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6545046896010347</v>
+        <v>0.6545046896013953</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6068651213798457</v>
+        <v>0.6068651213805071</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5784539034082506</v>
+        <v>0.578453903405217</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5858283971495005</v>
+        <v>0.5858283971494967</v>
       </c>
       <c r="J8" t="n">
-        <v>0.580435563993798</v>
+        <v>0.5804355639937184</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6836330376839097</v>
+        <v>0.6836330376835302</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6426425772050509</v>
+        <v>0.642642577205186</v>
       </c>
       <c r="M8" t="n">
-        <v>0.622515426316499</v>
+        <v>0.622515426315983</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7049977350805395</v>
+        <v>0.7049977350805475</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5604754106273625</v>
+        <v>0.5604754106273653</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5619282319605567</v>
+        <v>0.5619282319605565</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.5810170430286323</v>
+        <v>0.5810170430286485</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7011229387829877</v>
+        <v>0.7011229387819137</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5882446651909691</v>
+        <v>0.5882446651911423</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7586723821210569</v>
+        <v>0.7586723821197707</v>
       </c>
       <c r="U8" t="n">
-        <v>0.6928752233779694</v>
+        <v>0.6928752233741409</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6299138729114249</v>
+        <v>0.6299138729088506</v>
       </c>
       <c r="W8" t="n">
-        <v>0.5926779321624099</v>
+        <v>0.5926779321656402</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5871517223837661</v>
+        <v>0.5871517223837666</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.7072433166258018</v>
+        <v>0.7072433166259642</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.6338843991769281</v>
+        <v>0.6338843991769201</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.6271144471519084</v>
+        <v>0.6271144471519146</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.6305986990970812</v>
+        <v>0.6305986990970833</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.6200087401175333</v>
+        <v>0.620008740117707</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.6348759200092521</v>
+        <v>0.6348759200095998</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.6324403510406507</v>
+        <v>0.6324403510406663</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.6294052822484708</v>
+        <v>0.6294052822479611</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.649508168651859</v>
+        <v>0.6495081686511571</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.6331704234745539</v>
+        <v>0.6331704234745515</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.6133331991067521</v>
+        <v>0.6133331991071799</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.715261532837843</v>
+        <v>0.7152615328404274</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.6439142967735807</v>
+        <v>0.6439142967764374</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.6197158339465425</v>
+        <v>0.6197158339463058</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.600558412705185</v>
+        <v>0.6005584127051516</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.6330190357071277</v>
+        <v>0.6330190357045312</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.605035015611009</v>
+        <v>0.6050350156110091</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.6324170903309124</v>
+        <v>0.6324170903320645</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -2345,124 +2345,124 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6542216253518867</v>
+        <v>0.6542216253583851</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5989191904259826</v>
+        <v>0.5989191904245339</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7687302581804206</v>
+        <v>0.7687302581804517</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5591689812633405</v>
+        <v>0.5591689812633404</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5779307934805253</v>
+        <v>0.5779307934805252</v>
       </c>
       <c r="H9" t="n">
         <v>0.5760652711146675</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5817686692677225</v>
+        <v>0.5817686692677093</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5928146667252753</v>
+        <v>0.5928146667306744</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5776845360609882</v>
+        <v>0.5776845360609887</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6223112965579454</v>
+        <v>0.6223112965638443</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6081555063955277</v>
+        <v>0.6081555063954768</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6554774112324339</v>
+        <v>0.6554774112322657</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5892632369933741</v>
+        <v>0.5892632369933781</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5626291358965573</v>
+        <v>0.5626291358965562</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7804687681724218</v>
+        <v>0.7804687681726068</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5579899396297263</v>
+        <v>0.5579899396297244</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6562847137160374</v>
+        <v>0.6562847137265492</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5659378428033195</v>
+        <v>0.5659378428033245</v>
       </c>
       <c r="U9" t="n">
-        <v>0.567825851619614</v>
+        <v>0.5678258516196139</v>
       </c>
       <c r="V9" t="n">
-        <v>0.7938092768576992</v>
+        <v>0.7938092768577163</v>
       </c>
       <c r="W9" t="n">
-        <v>0.5751006387638096</v>
+        <v>0.57510063876381</v>
       </c>
       <c r="X9" t="n">
-        <v>0.805642458097822</v>
+        <v>0.8056424580977875</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.6254982109027952</v>
+        <v>0.6254982109028131</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.6182442208003183</v>
+        <v>0.6182442208003105</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.6505806746936208</v>
+        <v>0.6505806746929412</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.6802325304613749</v>
+        <v>0.6802325304613968</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.7006815870643147</v>
+        <v>0.7006815870638767</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.6360727181931444</v>
+        <v>0.6360727181936362</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.6752309689382091</v>
+        <v>0.6752309689377387</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.6200740440254332</v>
+        <v>0.6200740440252649</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.7425003264753577</v>
+        <v>0.742500326475153</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.6250992391462087</v>
+        <v>0.6250992391462101</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.8074959502921364</v>
+        <v>0.8074959502921323</v>
       </c>
       <c r="AJ9" t="n">
         <v>0.6221417656819509</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.8192193365453582</v>
+        <v>0.8192193365453563</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.6268352454237358</v>
+        <v>0.626835245423735</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.7861219856402851</v>
+        <v>0.7861219856402738</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.6180319582533392</v>
+        <v>0.6180319582533396</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.5893399650835167</v>
+        <v>0.5893399650835173</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.696148992943657</v>
+        <v>0.6961489929428154</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -2470,124 +2470,124 @@
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6720477871202852</v>
+        <v>0.6720477871195845</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6592968076502289</v>
+        <v>0.6592968076518354</v>
       </c>
       <c r="E10" t="n">
-        <v>0.57079899282667</v>
+        <v>0.5707989928266698</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6296528999205978</v>
+        <v>0.6296528999203158</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5709334382842945</v>
+        <v>0.5709334382842918</v>
       </c>
       <c r="H10" t="n">
-        <v>0.570073628527422</v>
+        <v>0.5700736285274252</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6336666665801116</v>
+        <v>0.633666666580201</v>
       </c>
       <c r="J10" t="n">
-        <v>0.606719264649225</v>
+        <v>0.6067192646490861</v>
       </c>
       <c r="K10" t="n">
-        <v>0.614942625379266</v>
+        <v>0.6149426253793302</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5784171959882438</v>
+        <v>0.5784171959882446</v>
       </c>
       <c r="M10" t="n">
-        <v>0.587486515980296</v>
+        <v>0.5874865159802956</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5734566206421544</v>
+        <v>0.5734566206421098</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5729851715046976</v>
+        <v>0.5729851715046985</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5750818602526827</v>
+        <v>0.5750818602526728</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5871415312294539</v>
+        <v>0.5871415312297706</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5935576515464146</v>
+        <v>0.5935576515462163</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6048553035612567</v>
+        <v>0.6048553035610587</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6815533308144679</v>
+        <v>0.6815533308146936</v>
       </c>
       <c r="U10" t="n">
         <v>0.5728453098618452</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5753078150357029</v>
+        <v>0.5753078150357047</v>
       </c>
       <c r="W10" t="n">
-        <v>0.6073129781311973</v>
+        <v>0.6073129781311994</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5830969239281067</v>
+        <v>0.5830969239281065</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.6749579666222388</v>
+        <v>0.6749579666215416</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.6332176272577031</v>
+        <v>0.6332176272579022</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.6288242310132234</v>
+        <v>0.6288242310125898</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.6397098293349118</v>
+        <v>0.6397098293349444</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.6242712951243402</v>
+        <v>0.6242712951243644</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.6358673462102037</v>
+        <v>0.6358673462101067</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.6384261120084266</v>
+        <v>0.6384261120084636</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.6305008716817168</v>
+        <v>0.6305008716817102</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.6365938949385872</v>
+        <v>0.6365938949375639</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.6301533505755805</v>
+        <v>0.630153350575535</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.6064082929188783</v>
+        <v>0.6064082929188891</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.6341204414974203</v>
+        <v>0.6341204414974456</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.6541238991357186</v>
+        <v>0.6541238991356267</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.6642398719901877</v>
+        <v>0.6642398720055299</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.7446874570992379</v>
+        <v>0.7446874570998944</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.6445211447442514</v>
+        <v>0.6445211447443039</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.6171533065881522</v>
+        <v>0.6171533065907923</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.6275215871362154</v>
+        <v>0.6275215871362692</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -2595,124 +2595,124 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7280153045096207</v>
+        <v>0.7280153045101244</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6664870789360811</v>
+        <v>0.6664870789354211</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5697475685811265</v>
+        <v>0.5697475685811256</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6247186926139744</v>
+        <v>0.6247186926194693</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5741627029151278</v>
+        <v>0.5741627029151213</v>
       </c>
       <c r="H11" t="n">
-        <v>0.580598561380624</v>
+        <v>0.5805985613806249</v>
       </c>
       <c r="I11" t="n">
         <v>0.5662586525982702</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6798452875672994</v>
+        <v>0.6798452875671046</v>
       </c>
       <c r="K11" t="n">
-        <v>0.567512326809171</v>
+        <v>0.5675123268091777</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6342325204258837</v>
+        <v>0.6342325204251531</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5691811525656844</v>
+        <v>0.5691811525656804</v>
       </c>
       <c r="N11" t="n">
-        <v>0.674671624110056</v>
+        <v>0.6746716241137649</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7590130683824927</v>
+        <v>0.7590130683828072</v>
       </c>
       <c r="P11" t="n">
         <v>0.5630191285097199</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5755906559262421</v>
+        <v>0.5755906559262617</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6719432061053258</v>
+        <v>0.67194320610467</v>
       </c>
       <c r="S11" t="n">
-        <v>0.566599060903662</v>
+        <v>0.5665990609036513</v>
       </c>
       <c r="T11" t="n">
-        <v>0.5696328102233026</v>
+        <v>0.5696328102233027</v>
       </c>
       <c r="U11" t="n">
-        <v>0.6296229957913296</v>
+        <v>0.6296229957876825</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5702092475175304</v>
+        <v>0.5702092475175309</v>
       </c>
       <c r="W11" t="n">
-        <v>0.7018324289965451</v>
+        <v>0.7018324289970427</v>
       </c>
       <c r="X11" t="n">
-        <v>0.6135396169318068</v>
+        <v>0.613539616931679</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.6640983369206771</v>
+        <v>0.6640983369204855</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.6326034291688938</v>
+        <v>0.6326034291689978</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.6537877554666823</v>
+        <v>0.6537877554692727</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.6302324688489798</v>
+        <v>0.630232468848984</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.6295397543625624</v>
+        <v>0.6295397543625723</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.6311955659697124</v>
+        <v>0.6311955659697142</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.6286069403872155</v>
+        <v>0.6286069403872183</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.6709081923488442</v>
+        <v>0.6709081923487398</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.6424348318928531</v>
+        <v>0.6424348318940692</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.6372418340612187</v>
+        <v>0.6372418340612153</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.6214786550885173</v>
+        <v>0.6214786550885137</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.6566671869399923</v>
+        <v>0.65666718693954</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.6123658275298911</v>
+        <v>0.6123658275298769</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.6738494327000473</v>
+        <v>0.673849432699884</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.610858560769978</v>
+        <v>0.6108585607699695</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.6312701889511021</v>
+        <v>0.631270188951098</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.6130764966333231</v>
+        <v>0.6130764966333266</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.6301854724709236</v>
+        <v>0.6301854724710374</v>
       </c>
     </row>
   </sheetData>
